--- a/biology/Botanique/Genévrier_nain/Genévrier_nain.xlsx
+++ b/biology/Botanique/Genévrier_nain/Genévrier_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen%C3%A9vrier_nain</t>
+          <t>Genévrier_nain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juniperus sibirica
 Le genévrier nain ou genévrier de Sibérie (Juniperus sibirica) est un arbrisseau rampant de la famille des Cupressaceae, présent dans les régions boréales d'Eurasie et d'Amérique et dans les montagnes d'Europe.
